--- a/past_talks/TalksSinceIStarted.xlsx
+++ b/past_talks/TalksSinceIStarted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mapyh/Documents/own-code/maaretp-site/past_talks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48530F03-6380-B94C-897B-5B5D8F7C00D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040042E3-6EF1-F84F-B3A9-62C3DB4158E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4360" yWindow="760" windowWidth="30200" windowHeight="19980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -264,7 +264,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> 528)</a:t>
+              <a:t> 529)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -464,7 +464,7 @@
                   <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -565,7 +565,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> over time (Total: 528)</a:t>
+              <a:t> over time (Total: 529)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -759,7 +759,7 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3243,8 +3243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3758,10 +3758,10 @@
       </c>
       <c r="B25">
         <f>SUM(C25+G25+K25)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C25" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G25" s="3">
         <v>7</v>
@@ -3776,7 +3776,7 @@
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B27">
         <f>SUM(B3:B25)</f>
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>
